--- a/05_Entregable 3/previo/Diccionarios/MD_06_MAATE_Consolidado 2020_Retenciones y Rescates_Zonales.xlsx
+++ b/05_Entregable 3/previo/Diccionarios/MD_06_MAATE_Consolidado 2020_Retenciones y Rescates_Zonales.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MAG\personal\consultorías\wcs\04_Entregable 2\previo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Angleito\Documents\Consultorías\wcs\05_Entregable 3\previo\Diccionarios\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="11385" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="11385" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Metadatos generales" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="203">
   <si>
     <t>Elemento</t>
   </si>
@@ -63,18 +63,12 @@
     <t>1.0</t>
   </si>
   <si>
-    <t>Nombre de la variable</t>
-  </si>
-  <si>
     <t>Definición</t>
   </si>
   <si>
     <t>Formato de Datos</t>
   </si>
   <si>
-    <t>Unidad de Medida</t>
-  </si>
-  <si>
     <t>Fuente de Datos</t>
   </si>
   <si>
@@ -144,81 +138,12 @@
     <t>ENERO-JUNIO 2020</t>
   </si>
   <si>
-    <t>A7:Y733</t>
-  </si>
-  <si>
     <t>Ministerio del Ambiente y Agua</t>
   </si>
   <si>
-    <t>Código Acta</t>
-  </si>
-  <si>
     <t>Fecha del rescate</t>
   </si>
   <si>
-    <t>Hora de rescate</t>
-  </si>
-  <si>
-    <t>X</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>Nombres</t>
-  </si>
-  <si>
-    <t>Apellidos</t>
-  </si>
-  <si>
-    <t>Cédula o Pasaporte</t>
-  </si>
-  <si>
-    <t>Filiación Institucional</t>
-  </si>
-  <si>
-    <t>Forma de aviso</t>
-  </si>
-  <si>
-    <t>Reino</t>
-  </si>
-  <si>
-    <t>Clase</t>
-  </si>
-  <si>
-    <t>Nombre científico</t>
-  </si>
-  <si>
-    <t>Nombre Común</t>
-  </si>
-  <si>
-    <t>Machos</t>
-  </si>
-  <si>
-    <t>Hembras</t>
-  </si>
-  <si>
-    <t>Indet.</t>
-  </si>
-  <si>
-    <t>Etapa de vida</t>
-  </si>
-  <si>
-    <t>Estado Físico</t>
-  </si>
-  <si>
-    <t>Razón social del Destino</t>
-  </si>
-  <si>
-    <t>Fecha de Entrega</t>
-  </si>
-  <si>
-    <t>Destino final</t>
-  </si>
-  <si>
-    <t>Acta Desntino Final</t>
-  </si>
-  <si>
     <t>Código de acta del registro de rescate</t>
   </si>
   <si>
@@ -294,54 +219,6 @@
     <t>Retencion</t>
   </si>
   <si>
-    <t>A7:AL57</t>
-  </si>
-  <si>
-    <t>Causal COIP / CODA</t>
-  </si>
-  <si>
-    <t>Fecha de la retención</t>
-  </si>
-  <si>
-    <t>Hora de la retención</t>
-  </si>
-  <si>
-    <t>Dirección para notificaciones</t>
-  </si>
-  <si>
-    <t>Tipo</t>
-  </si>
-  <si>
-    <t>Placa</t>
-  </si>
-  <si>
-    <t>Lugar</t>
-  </si>
-  <si>
-    <t>Detalle</t>
-  </si>
-  <si>
-    <t>Cantidad</t>
-  </si>
-  <si>
-    <t>Costo monetario</t>
-  </si>
-  <si>
-    <t>Peso/Volumen</t>
-  </si>
-  <si>
-    <t>Unidad</t>
-  </si>
-  <si>
-    <t>Acta Destino Final</t>
-  </si>
-  <si>
-    <t>Tipo de proceso</t>
-  </si>
-  <si>
-    <t>Razón social</t>
-  </si>
-  <si>
     <t>Código del acta de la retención</t>
   </si>
   <si>
@@ -453,18 +330,12 @@
     <t>Nombres del lugar de destino dela vida silvestre retenida</t>
   </si>
   <si>
-    <t>Nombres del responsable de larecepción de la vida silvestre retenida</t>
-  </si>
-  <si>
     <t>Apellidos del responsable de la recepción de la vida silvestre retenida</t>
   </si>
   <si>
     <t>Fecha de recepción de la vida silvestre retenida</t>
   </si>
   <si>
-    <t>No. de proceso</t>
-  </si>
-  <si>
     <t>Tenencia ilegal</t>
   </si>
   <si>
@@ -597,16 +468,175 @@
     <t>MAE-DPAP-VS-001</t>
   </si>
   <si>
-    <t>WGS84 17 S</t>
-  </si>
-  <si>
     <t>Clasificación interna MAATE</t>
   </si>
   <si>
-    <t>Número de individuos</t>
-  </si>
-  <si>
     <t>En la siguiente variable se especifica la unidad de medida</t>
+  </si>
+  <si>
+    <t>Nombre propuesto</t>
+  </si>
+  <si>
+    <t>codigo_acta</t>
+  </si>
+  <si>
+    <t>causal</t>
+  </si>
+  <si>
+    <t>fecha_retencion</t>
+  </si>
+  <si>
+    <t>hora_retencion</t>
+  </si>
+  <si>
+    <t>longitud</t>
+  </si>
+  <si>
+    <t>latitud</t>
+  </si>
+  <si>
+    <t>nombres_infractor</t>
+  </si>
+  <si>
+    <t>apellidos_infractor</t>
+  </si>
+  <si>
+    <t>numero_identificacion_infractor</t>
+  </si>
+  <si>
+    <t>direccion_infractor</t>
+  </si>
+  <si>
+    <t>tipo_transporte</t>
+  </si>
+  <si>
+    <t>clase_transporte</t>
+  </si>
+  <si>
+    <t>placa_transporte</t>
+  </si>
+  <si>
+    <t>lugar_escondite</t>
+  </si>
+  <si>
+    <t>detalle_escondite</t>
+  </si>
+  <si>
+    <t>reino_especimen</t>
+  </si>
+  <si>
+    <t>clase_especimen</t>
+  </si>
+  <si>
+    <t>nom_cientifico_especimen</t>
+  </si>
+  <si>
+    <t>nom_comun_especimen</t>
+  </si>
+  <si>
+    <t>tipo_especimen</t>
+  </si>
+  <si>
+    <t>cantidad</t>
+  </si>
+  <si>
+    <t>costo_monetario_especimen</t>
+  </si>
+  <si>
+    <t>etapa_vida_especimen</t>
+  </si>
+  <si>
+    <t>num_machos</t>
+  </si>
+  <si>
+    <t>num_hembras</t>
+  </si>
+  <si>
+    <t>num_sexo_indeterminado</t>
+  </si>
+  <si>
+    <t>estado_fisico</t>
+  </si>
+  <si>
+    <t>detalle</t>
+  </si>
+  <si>
+    <t>canidad</t>
+  </si>
+  <si>
+    <t>unidad</t>
+  </si>
+  <si>
+    <t>destino_final</t>
+  </si>
+  <si>
+    <t>acta_destino_final</t>
+  </si>
+  <si>
+    <t>tipo_proceso</t>
+  </si>
+  <si>
+    <t>cod_proceso</t>
+  </si>
+  <si>
+    <t>razon_social</t>
+  </si>
+  <si>
+    <t>Nombres del responsable de la recepción de la vida silvestre retenida</t>
+  </si>
+  <si>
+    <t>nombres_responsable_recepcion</t>
+  </si>
+  <si>
+    <t>apellidos_responsable_recepcion</t>
+  </si>
+  <si>
+    <t>fecha_entrega</t>
+  </si>
+  <si>
+    <t>Nombre actual</t>
+  </si>
+  <si>
+    <t>fecha_rescate</t>
+  </si>
+  <si>
+    <t>hora_rescate</t>
+  </si>
+  <si>
+    <t>forma_aviso</t>
+  </si>
+  <si>
+    <t>etapa_vida</t>
+  </si>
+  <si>
+    <t>nombres_rescatista</t>
+  </si>
+  <si>
+    <t>apellidos_rescatista</t>
+  </si>
+  <si>
+    <t>num_identificacion_rescatista</t>
+  </si>
+  <si>
+    <t>nom_institucion</t>
+  </si>
+  <si>
+    <t>reino</t>
+  </si>
+  <si>
+    <t>clase</t>
+  </si>
+  <si>
+    <t>nom_cientificio_especimen_rescatado</t>
+  </si>
+  <si>
+    <t>razon_social_destino</t>
+  </si>
+  <si>
+    <t>A10:AL57</t>
+  </si>
+  <si>
+    <t>A10:Y733</t>
   </si>
 </sst>
 </file>
@@ -1090,7 +1120,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1100,70 +1130,70 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" t="s">
         <v>34</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E4" t="s">
         <v>35</v>
-      </c>
-      <c r="D4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E4" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>38</v>
+        <v>202</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B7" s="7"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1176,15 +1206,15 @@
   <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17:D18"/>
+      <selection activeCell="A2" sqref="A2:A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28.5703125" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.42578125" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.28515625" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.5703125" style="11" customWidth="1"/>
+    <col min="3" max="3" width="28.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" style="11" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.42578125" style="11" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22.28515625" style="11" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.85546875" style="11" bestFit="1" customWidth="1"/>
@@ -1194,68 +1224,68 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="C1" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="D1" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="E1" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="F1" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="G1" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="H1" s="10" t="s">
         <v>16</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>40</v>
+        <v>149</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>63</v>
+        <v>149</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>86</v>
+        <v>61</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>188</v>
+        <v>145</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>41</v>
+        <v>189</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>41</v>
+        <v>189</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F3" s="11" t="s">
         <v>6</v>
@@ -1266,19 +1296,19 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>42</v>
+        <v>190</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>64</v>
+        <v>190</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F4" s="11" t="s">
         <v>6</v>
@@ -1289,266 +1319,266 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>43</v>
+        <v>153</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>109</v>
+        <v>153</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>19</v>
+        <v>60</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>171</v>
+        <v>128</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>172</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>44</v>
+        <v>154</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>110</v>
+        <v>154</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>19</v>
+        <v>60</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>171</v>
+        <v>128</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>173</v>
+        <v>130</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>65</v>
+        <v>193</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>193</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F7" s="11" t="s">
         <v>6</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>174</v>
+        <v>131</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>66</v>
+        <v>194</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>194</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F8" s="11" t="s">
         <v>6</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>175</v>
+        <v>132</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
-        <v>47</v>
+        <v>195</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>67</v>
+        <v>195</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>86</v>
+        <v>61</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>176</v>
+        <v>133</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
-        <v>48</v>
+        <v>196</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>68</v>
+        <v>196</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>190</v>
+        <v>146</v>
       </c>
       <c r="F10" s="11" t="s">
         <v>6</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>177</v>
+        <v>134</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
-        <v>49</v>
+        <v>191</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>69</v>
+        <v>191</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F11" s="11" t="s">
         <v>6</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>178</v>
+        <v>135</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
-        <v>50</v>
+        <v>197</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>70</v>
+        <v>197</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="E12" s="8"/>
       <c r="F12" s="11" t="s">
         <v>6</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>150</v>
+        <v>107</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
-        <v>51</v>
+        <v>198</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>71</v>
+        <v>198</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="E13" s="8"/>
       <c r="F13" s="11" t="s">
         <v>6</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>151</v>
+        <v>108</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
-        <v>52</v>
+        <v>199</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>72</v>
+        <v>199</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="E14" s="8"/>
       <c r="F14" s="11" t="s">
         <v>6</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>179</v>
+        <v>136</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
-        <v>53</v>
+        <v>167</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>73</v>
+        <v>167</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F15" s="11" t="s">
         <v>6</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>180</v>
+        <v>137</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
-        <v>54</v>
+        <v>172</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>74</v>
+        <v>172</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>85</v>
+        <v>49</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>191</v>
+        <v>60</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F16" s="11" t="s">
         <v>6</v>
@@ -1559,19 +1589,19 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
-        <v>55</v>
+        <v>173</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>75</v>
+        <v>173</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>191</v>
+        <v>60</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F17" s="11" t="s">
         <v>6</v>
@@ -1582,19 +1612,19 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
-        <v>56</v>
+        <v>174</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>76</v>
+        <v>174</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>85</v>
+        <v>51</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>191</v>
+        <v>60</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F18" s="11" t="s">
         <v>6</v>
@@ -1605,134 +1635,134 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="B19" s="11" t="s">
-        <v>77</v>
+        <v>192</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>192</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F19" s="11" t="s">
         <v>6</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>181</v>
+        <v>138</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="B20" s="11" t="s">
-        <v>78</v>
+        <v>175</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>175</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F20" s="11" t="s">
         <v>6</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>182</v>
+        <v>139</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
-        <v>59</v>
+        <v>200</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>79</v>
+        <v>200</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F21" s="11" t="s">
         <v>6</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>183</v>
+        <v>140</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="B22" s="11" t="s">
-        <v>80</v>
+        <v>185</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>185</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F22" s="11" t="s">
         <v>6</v>
       </c>
       <c r="G22" s="11" t="s">
-        <v>184</v>
+        <v>141</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="B23" s="11" t="s">
-        <v>81</v>
+        <v>186</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>186</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F23" s="11" t="s">
         <v>6</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>185</v>
+        <v>142</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
-        <v>60</v>
+        <v>187</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>82</v>
+        <v>187</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F24" s="11" t="s">
         <v>6</v>
@@ -1743,48 +1773,48 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
-        <v>61</v>
+        <v>179</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>83</v>
+        <v>179</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>190</v>
+        <v>146</v>
       </c>
       <c r="F25" s="11" t="s">
         <v>6</v>
       </c>
       <c r="G25" s="11" t="s">
-        <v>186</v>
+        <v>143</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
-        <v>62</v>
+        <v>180</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>84</v>
+        <v>180</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>86</v>
+        <v>61</v>
       </c>
       <c r="G26" s="11" t="s">
-        <v>187</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -1808,70 +1838,70 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" t="s">
         <v>34</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E4" t="s">
         <v>35</v>
-      </c>
-      <c r="D4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E4" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>88</v>
+        <v>201</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B7" s="7"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1884,15 +1914,15 @@
   <dimension ref="A1:H39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28.5703125" style="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.42578125" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.28515625" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.5703125" style="14" customWidth="1"/>
+    <col min="3" max="3" width="28.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" style="11" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.42578125" style="11" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22.28515625" style="11" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.85546875" style="11" bestFit="1" customWidth="1"/>
@@ -1902,68 +1932,68 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="C1" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="D1" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="E1" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="F1" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="G1" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="H1" s="10" t="s">
         <v>16</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>104</v>
+        <v>149</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>149</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>28</v>
+        <v>63</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>86</v>
+        <v>61</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>145</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>105</v>
+        <v>150</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>150</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>190</v>
+        <v>146</v>
       </c>
       <c r="F3" s="11" t="s">
         <v>6</v>
@@ -1974,19 +2004,19 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>106</v>
+        <v>151</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>151</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F4" s="11" t="s">
         <v>6</v>
@@ -1997,19 +2027,19 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>107</v>
+        <v>152</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>152</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>29</v>
+        <v>66</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F5" s="11" t="s">
         <v>6</v>
@@ -2020,22 +2050,22 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>108</v>
+        <v>153</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>153</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>189</v>
+        <v>60</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>171</v>
+        <v>128</v>
       </c>
       <c r="G6" s="11">
         <v>9947538900</v>
@@ -2043,356 +2073,356 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>111</v>
+        <v>154</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>154</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>189</v>
+        <v>60</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>171</v>
+        <v>128</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>146</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>112</v>
+        <v>155</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>155</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>28</v>
+        <v>71</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F8" s="11" t="s">
         <v>6</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>147</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>113</v>
+        <v>156</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>156</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>28</v>
+        <v>72</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F9" s="11" t="s">
         <v>6</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>148</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>114</v>
+        <v>157</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>157</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>28</v>
+        <v>73</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>86</v>
+        <v>61</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>149</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>115</v>
+        <v>158</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>158</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>28</v>
+        <v>74</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F11" s="11" t="s">
         <v>6</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>160</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>116</v>
+        <v>159</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>159</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>190</v>
+        <v>146</v>
       </c>
       <c r="F12" s="11" t="s">
         <v>6</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>161</v>
+        <v>118</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>118</v>
+        <v>160</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>160</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>30</v>
+        <v>77</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>190</v>
+        <v>146</v>
       </c>
       <c r="F13" s="11" t="s">
         <v>6</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>164</v>
+        <v>121</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>117</v>
+        <v>161</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>161</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>28</v>
+        <v>76</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F14" s="11" t="s">
         <v>6</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>162</v>
+        <v>119</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>119</v>
+        <v>162</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>162</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>30</v>
+        <v>78</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F15" s="11" t="s">
         <v>6</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>163</v>
+        <v>120</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>120</v>
+        <v>163</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>163</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>28</v>
+        <v>79</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F16" s="11" t="s">
         <v>6</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>150</v>
+        <v>107</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>121</v>
+        <v>164</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>164</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="E17" s="8"/>
       <c r="F17" s="11" t="s">
         <v>6</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>151</v>
+        <v>108</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>122</v>
+        <v>165</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>165</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>30</v>
+        <v>81</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="E18" s="8"/>
       <c r="F18" s="11" t="s">
         <v>6</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>152</v>
+        <v>109</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="B19" s="11" t="s">
-        <v>123</v>
+        <v>166</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>166</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>30</v>
+        <v>82</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="E19" s="8"/>
       <c r="F19" s="11" t="s">
         <v>6</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>153</v>
+        <v>110</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="B20" s="11" t="s">
-        <v>124</v>
+        <v>167</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>167</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>28</v>
+        <v>83</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F20" s="11" t="s">
         <v>6</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>154</v>
+        <v>111</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="B21" s="11" t="s">
-        <v>125</v>
+        <v>168</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>168</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>30</v>
+        <v>84</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="E21" s="8"/>
       <c r="F21" s="11" t="s">
         <v>6</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>154</v>
+        <v>111</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="B22" s="11" t="s">
-        <v>126</v>
+        <v>169</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>169</v>
       </c>
       <c r="C22" s="11" t="s">
         <v>85</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>19</v>
+        <v>60</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F22" s="11" t="s">
         <v>6</v>
@@ -2403,19 +2433,19 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="B23" s="11" t="s">
-        <v>127</v>
+        <v>170</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>170</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>19</v>
+        <v>60</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F23" s="11" t="s">
         <v>6</v>
@@ -2426,40 +2456,40 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="B24" s="11" t="s">
-        <v>128</v>
+        <v>171</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>171</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>30</v>
+        <v>87</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="E24" s="8"/>
       <c r="F24" s="11" t="s">
         <v>6</v>
       </c>
       <c r="G24" s="11" t="s">
-        <v>165</v>
+        <v>122</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="B25" s="11" t="s">
-        <v>129</v>
+        <v>172</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>172</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>191</v>
+        <v>60</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F25" s="11" t="s">
         <v>6</v>
@@ -2470,19 +2500,19 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="B26" s="11" t="s">
-        <v>130</v>
+        <v>173</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>173</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>191</v>
+        <v>60</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F26" s="11" t="s">
         <v>6</v>
@@ -2493,19 +2523,19 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="B27" s="11" t="s">
-        <v>131</v>
+        <v>174</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>174</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>191</v>
+        <v>60</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F27" s="11" t="s">
         <v>6</v>
@@ -2516,63 +2546,63 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="B28" s="11" t="s">
-        <v>132</v>
+        <v>175</v>
+      </c>
+      <c r="B28" s="19" t="s">
+        <v>175</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>30</v>
+        <v>91</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="E28" s="8"/>
       <c r="F28" s="11" t="s">
         <v>6</v>
       </c>
       <c r="G28" s="11" t="s">
-        <v>166</v>
+        <v>123</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="B29" s="11" t="s">
-        <v>133</v>
+        <v>176</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>176</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>30</v>
+        <v>92</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F29" s="11" t="s">
         <v>6</v>
       </c>
       <c r="G29" s="11" t="s">
-        <v>155</v>
+        <v>112</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="B30" s="11" t="s">
-        <v>134</v>
+        <v>177</v>
+      </c>
+      <c r="B30" s="14" t="s">
+        <v>177</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>19</v>
+        <v>60</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F30" s="11" t="s">
         <v>6</v>
@@ -2581,208 +2611,208 @@
         <v>2.5</v>
       </c>
       <c r="H30" s="11" t="s">
-        <v>192</v>
+        <v>147</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="B31" s="11" t="s">
-        <v>135</v>
+        <v>178</v>
+      </c>
+      <c r="B31" s="14" t="s">
+        <v>178</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>30</v>
+        <v>94</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F31" s="11" t="s">
         <v>6</v>
       </c>
       <c r="G31" s="11" t="s">
-        <v>156</v>
+        <v>113</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="B32" s="11" t="s">
-        <v>136</v>
+        <v>179</v>
+      </c>
+      <c r="B32" s="14" t="s">
+        <v>179</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>30</v>
+        <v>95</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>190</v>
+        <v>146</v>
       </c>
       <c r="F32" s="11" t="s">
         <v>6</v>
       </c>
       <c r="G32" s="11" t="s">
-        <v>157</v>
+        <v>114</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="B33" s="11" t="s">
-        <v>137</v>
+        <v>180</v>
+      </c>
+      <c r="B33" s="14" t="s">
+        <v>180</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>28</v>
+        <v>96</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>86</v>
+        <v>61</v>
       </c>
       <c r="G33" s="11" t="s">
-        <v>158</v>
+        <v>115</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="B34" s="11" t="s">
-        <v>138</v>
+        <v>181</v>
+      </c>
+      <c r="B34" s="14" t="s">
+        <v>181</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>30</v>
+        <v>97</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>190</v>
+        <v>146</v>
       </c>
       <c r="F34" s="11" t="s">
         <v>6</v>
       </c>
       <c r="G34" s="11" t="s">
-        <v>159</v>
+        <v>116</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="B35" s="11" t="s">
-        <v>139</v>
+        <v>182</v>
+      </c>
+      <c r="B35" s="14" t="s">
+        <v>182</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>28</v>
+        <v>98</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>86</v>
+        <v>61</v>
       </c>
       <c r="G35" s="11" t="s">
-        <v>167</v>
+        <v>124</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="B36" s="11" t="s">
-        <v>140</v>
+        <v>183</v>
+      </c>
+      <c r="B36" s="14" t="s">
+        <v>183</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>28</v>
+        <v>99</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F36" s="11" t="s">
         <v>6</v>
       </c>
       <c r="G36" s="11" t="s">
-        <v>168</v>
+        <v>125</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="B37" s="11" t="s">
-        <v>141</v>
+        <v>185</v>
+      </c>
+      <c r="B37" s="18" t="s">
+        <v>185</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>28</v>
+        <v>184</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E37" s="11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F37" s="11" t="s">
         <v>6</v>
       </c>
       <c r="G37" s="11" t="s">
-        <v>169</v>
+        <v>126</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="B38" s="11" t="s">
-        <v>142</v>
+        <v>186</v>
+      </c>
+      <c r="B38" s="18" t="s">
+        <v>186</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>28</v>
+        <v>100</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F38" s="11" t="s">
         <v>6</v>
       </c>
       <c r="G38" s="11" t="s">
-        <v>170</v>
+        <v>127</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="B39" s="11" t="s">
-        <v>143</v>
+        <v>187</v>
+      </c>
+      <c r="B39" s="14" t="s">
+        <v>187</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>29</v>
+        <v>101</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="E39" s="11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F39" s="11" t="s">
         <v>6</v>
